--- a/target/classes/模板.xlsx
+++ b/target/classes/模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moxianbin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moxianbin/git/study-service-pro/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>account</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>2019年中国邮政储蓄银行理财产品销售从业人员资格第一期考试远程培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,6 +94,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -390,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -404,7 +417,7 @@
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +433,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -437,8 +453,11 @@
       <c r="E2">
         <v>1111</v>
       </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -453,6 +472,9 @@
       </c>
       <c r="E3">
         <v>1010772614</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/模板.xlsx
+++ b/target/classes/模板.xlsx
@@ -43,9 +43,6 @@
     <t>lesson</t>
   </si>
   <si>
-    <t>510724199105060844</t>
-  </si>
-  <si>
     <t>2019lcjl1</t>
   </si>
   <si>
@@ -59,10 +56,6 @@
     <t>2020年中国邮政储蓄银行理财产品销售从业人员资格第一期考试远程培训</t>
   </si>
   <si>
-    <t>23082219940902336x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2019年中国邮政储蓄银行理财产品销售从业人员资格第一期考试远程培训</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,11 +64,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
+    <t>131022198801180342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任志明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512930196302025753</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +407,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -431,50 +432,50 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>880118</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>556688</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>1111</v>
+        <v>1010705326</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>313636</v>
+        <v>25753</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3">
-        <v>1010772614</v>
+        <v>1010750447</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
